--- a/数据整理/stocks/港股/02318-中国平安.xlsx
+++ b/数据整理/stocks/港股/02318-中国平安.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5797,4 +5798,1542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5964</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4778</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5527</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159809</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时恒生沪深港通大湾区综合ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02318-中国平安.xlsx
+++ b/数据整理/stocks/港股/02318-中国平安.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7336,4 +7337,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02318-中国平安.xlsx
+++ b/数据整理/stocks/港股/02318-中国平安.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7345,7 +7346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7356,17 +7357,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7376,14 +7397,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.39</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7392,14 +7435,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.66</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7408,13 +7473,1427 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>73</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>40.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02318-中国平安.xlsx
+++ b/数据整理/stocks/港股/02318-中国平安.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8808,7 +8809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8819,17 +8820,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8839,14 +8860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.37</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8855,14 +8898,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.39</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8871,14 +8936,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.66</v>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8887,13 +8974,1291 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1980</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7787</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>40.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02318-中国平安.xlsx
+++ b/数据整理/stocks/港股/02318-中国平安.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10157,7 +10158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10168,17 +10169,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10188,14 +10209,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.57</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -10204,14 +10247,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.37</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -10220,14 +10285,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.39</v>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -10236,14 +10323,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.66</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5190</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -10252,13 +10361,1383 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>73</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>40.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02318-中国平安.xlsx
+++ b/数据整理/stocks/港股/02318-中国平安.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>16.95</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>16.57</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>13.37</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>20.39</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>45.66</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>73</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>40.03</v>
       </c>
     </row>
@@ -583,6 +600,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>50.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>517780</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛中华交易服务沪深港300ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦沪深港通大湾区综指（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2044,7 +3447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3392,7 +4795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4854,7 +6257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6392,7 +7795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8918,7 +10321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02318-中国平安.xlsx
+++ b/数据整理/stocks/港股/02318-中国平安.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>10.15</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>16.95</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>16.57</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>13.37</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>20.39</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>45.66</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>73</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>40.03</v>
       </c>
     </row>
@@ -600,6 +617,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0806</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7604</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5804</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商富时中国AH50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>方正富邦沪深港通大湾区综指（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1985,7 +4034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3447,7 +5496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4795,7 +6844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6257,7 +8306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7795,7 +9844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10321,7 +12370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
